--- a/Projects/Federal Reserve Data/ADisaggregated C&A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/ADisaggregated C&A  Diff-in-DiffDAGVAR 2008-10-31 to 2020-02-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -22,88 +22,22 @@
     <t>FFR</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>$\pi$</t>
-  </si>
-  <si>
     <t>A Lag</t>
   </si>
   <si>
     <t>FFR Lag</t>
   </si>
   <si>
-    <t>C Lag</t>
-  </si>
-  <si>
-    <t>$\pi$ Lag</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>-0.792***</t>
-  </si>
-  <si>
-    <t>-0.26***</t>
-  </si>
-  <si>
-    <t>-0.037*</t>
-  </si>
-  <si>
-    <t>-0.134</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.116</t>
-  </si>
-  <si>
-    <t>0.008</t>
-  </si>
-  <si>
-    <t>0.082**</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.188*</t>
-  </si>
-  <si>
-    <t>-1.382*</t>
-  </si>
-  <si>
-    <t>-2.241***</t>
-  </si>
-  <si>
-    <t>-0.601***</t>
-  </si>
-  <si>
-    <t>0.833*</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.592***</t>
-  </si>
-  <si>
-    <t>0.381***</t>
-  </si>
-  <si>
-    <t>-0.028</t>
-  </si>
-  <si>
-    <t>-0.595***</t>
-  </si>
-  <si>
-    <t>0.002</t>
+    <t>-0.865***</t>
+  </si>
+  <si>
+    <t>-0.256***</t>
+  </si>
+  <si>
+    <t>0.357**</t>
+  </si>
+  <si>
+    <t>0.009</t>
   </si>
 </sst>
 </file>
@@ -461,126 +395,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.57</v>
-      </c>
-      <c r="C7">
-        <v>0.13</v>
-      </c>
-      <c r="D7">
-        <v>0.7</v>
-      </c>
-      <c r="E7">
-        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
